--- a/data/userData.xlsx
+++ b/data/userData.xlsx
@@ -703,7 +703,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="37.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="31.719285714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="39.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -718,7 +718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -762,7 +762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -773,7 +773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -784,7 +784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -795,7 +795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -806,7 +806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -817,7 +817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -828,7 +828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -839,7 +839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -850,7 +850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -861,7 +861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -872,7 +872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -883,7 +883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -894,7 +894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -905,7 +905,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -916,7 +916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -927,7 +927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -938,7 +938,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -949,7 +949,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -960,7 +960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -971,7 +971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
@@ -982,7 +982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="2" t="s">
         <v>74</v>
       </c>
@@ -993,7 +993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="2" t="s">
         <v>95</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="2" t="s">
         <v>101</v>
       </c>

--- a/data/userData.xlsx
+++ b/data/userData.xlsx
@@ -718,7 +718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -762,7 +762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -773,7 +773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -784,7 +784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -795,7 +795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -806,7 +806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -817,7 +817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -828,7 +828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -839,7 +839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -850,7 +850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -861,7 +861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -872,7 +872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -883,7 +883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -894,7 +894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -905,7 +905,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -916,7 +916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -927,7 +927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -938,7 +938,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -949,7 +949,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -960,7 +960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -971,7 +971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
@@ -982,7 +982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2" t="s">
         <v>74</v>
       </c>
@@ -993,7 +993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
